--- a/data/trans_dic/MCS12_SP_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3871934807016553</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3954284235315827</v>
+        <v>0.3954284235315826</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.302215638285586</v>
@@ -697,7 +697,7 @@
         <v>0.332842952179621</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3410622677818944</v>
+        <v>0.3410622677818945</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2421310219876472</v>
+        <v>0.2434166222839543</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2671969049930977</v>
+        <v>0.2669162295389753</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2326276909375395</v>
+        <v>0.229575741087942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.230891072476202</v>
+        <v>0.2321421939824102</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3012834841421238</v>
+        <v>0.3003368333020084</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3729020468958563</v>
+        <v>0.3706045515720023</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3542616185424643</v>
+        <v>0.3557121913390346</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3684332619419454</v>
+        <v>0.3679432126444953</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2838588379085282</v>
+        <v>0.2830015693392276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3365447023505884</v>
+        <v>0.3371693152519755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3083065850865898</v>
+        <v>0.3102187536203879</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3186216915093266</v>
+        <v>0.3192837104802975</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2982299877929025</v>
+        <v>0.2980567238393367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3270940677885746</v>
+        <v>0.3259180993296399</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2938309277494717</v>
+        <v>0.2908144620149175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2991034133968696</v>
+        <v>0.3010252421890399</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3522434743652472</v>
+        <v>0.3526844492346717</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4280938214595535</v>
+        <v>0.4260125262804365</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4230998711827265</v>
+        <v>0.4180308828195288</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4202869218654489</v>
+        <v>0.4215505373914955</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3215640115036053</v>
+        <v>0.3218607812085922</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.37785184252137</v>
+        <v>0.3770636988840867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3551794111511771</v>
+        <v>0.3547845715157521</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.363370323360851</v>
+        <v>0.3613322897336265</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1290108180957088</v>
+        <v>0.1295496875372743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1894402566079547</v>
+        <v>0.1892687895252758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1558449500509805</v>
+        <v>0.1543073950285725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1652663413562566</v>
+        <v>0.1632053410611295</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2062633948290559</v>
+        <v>0.2074107155852027</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2783489043460914</v>
+        <v>0.2796583190729654</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2081392721070082</v>
+        <v>0.2091753603003515</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2299371813273131</v>
+        <v>0.2310699015980558</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1723819662256908</v>
+        <v>0.1714061960199854</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2387077649004617</v>
+        <v>0.2383747331560321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.185946990577778</v>
+        <v>0.1854601304603735</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2009388334590121</v>
+        <v>0.2025701092316752</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1628231835259845</v>
+        <v>0.1645439862092421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2270800383882202</v>
+        <v>0.2288575665666958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.190129889166488</v>
+        <v>0.1883510762241575</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2014302449210621</v>
+        <v>0.1998165026841675</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2516969622263756</v>
+        <v>0.2490220394077242</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3228056615332003</v>
+        <v>0.3259066080679449</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2465837548449574</v>
+        <v>0.2468169476369392</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2631831053769134</v>
+        <v>0.2650223944556041</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.200732880414219</v>
+        <v>0.1997193954236451</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2671255727039545</v>
+        <v>0.2679887353311339</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2105250200856469</v>
+        <v>0.2116394774244227</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2267770317280481</v>
+        <v>0.2267528685594025</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1274706427223554</v>
+        <v>0.1254123379647574</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0946146036278768</v>
+        <v>0.09828523240505882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1231086309317267</v>
+        <v>0.1249952662506084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1526492874566706</v>
+        <v>0.1574141767621143</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1822016854118515</v>
+        <v>0.1834403860305117</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1650009910624614</v>
+        <v>0.169587139302407</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1686945582766335</v>
+        <v>0.1665703450779119</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2148481196562678</v>
+        <v>0.2101907278997636</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1596042520039581</v>
+        <v>0.1592629128619563</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1428558203540969</v>
+        <v>0.1393726019675185</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1546072767987202</v>
+        <v>0.155034872157789</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1943810448802973</v>
+        <v>0.1928287265128114</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1855871948840142</v>
+        <v>0.1891443937987196</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1641668116425668</v>
+        <v>0.1629223464710536</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1917906503227773</v>
+        <v>0.1950737354099737</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2153852315383448</v>
+        <v>0.2166273450668691</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2585581074674414</v>
+        <v>0.2585303353689027</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2463017795300587</v>
+        <v>0.2491683482348639</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.236840508458969</v>
+        <v>0.23440435072912</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.270446727573358</v>
+        <v>0.2685207070378691</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2112069673922409</v>
+        <v>0.2107538138196332</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1985382196989003</v>
+        <v>0.1932230353032105</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2004754609466663</v>
+        <v>0.2034914595101362</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2370624694410681</v>
+        <v>0.2330145848581877</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2291411036902601</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.238223615680233</v>
+        <v>0.2382236156802331</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1732786090292094</v>
+        <v>0.1724801653234511</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.207671824057069</v>
+        <v>0.2064410134810301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1756739125238325</v>
+        <v>0.1753833042221428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1823534645936311</v>
+        <v>0.182348941425763</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2512254481176807</v>
+        <v>0.2499129579972557</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3101514721623661</v>
+        <v>0.310794787278089</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2526356748913176</v>
+        <v>0.2535226966094529</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2640171491714767</v>
+        <v>0.2656696846696629</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2174564544668633</v>
+        <v>0.2163032369262539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2644941643767504</v>
+        <v>0.2647456893640491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2188624383917407</v>
+        <v>0.2198263574736029</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2286818816100698</v>
+        <v>0.2288463110586469</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.200480537593351</v>
+        <v>0.2010159286557666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2380687350128604</v>
+        <v>0.2363212247109535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2033509886462433</v>
+        <v>0.2032553415482172</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2101848470741681</v>
+        <v>0.2102325533551914</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2819415622131851</v>
+        <v>0.2797816737309765</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3417976101437716</v>
+        <v>0.3437403162774704</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2823549631658085</v>
+        <v>0.2833672333977188</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2913206128232395</v>
+        <v>0.2921129408724441</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2373116122914047</v>
+        <v>0.2370823018040929</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2859525968272872</v>
+        <v>0.2877277201830183</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2393214028749509</v>
+        <v>0.2409860083710621</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2475834675364065</v>
+        <v>0.2480032898377046</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>249812</v>
+        <v>251139</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>260422</v>
+        <v>260148</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>175482</v>
+        <v>173180</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>132437</v>
+        <v>133154</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>396222</v>
+        <v>394977</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>498867</v>
+        <v>495794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>352370</v>
+        <v>353813</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>298973</v>
+        <v>298576</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>666170</v>
+        <v>664158</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>778239</v>
+        <v>779684</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>539230</v>
+        <v>542575</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>441310</v>
+        <v>442227</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>307691</v>
+        <v>307512</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>318800</v>
+        <v>317654</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>221650</v>
+        <v>219375</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>171562</v>
+        <v>172665</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>463240</v>
+        <v>463820</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>572703</v>
+        <v>569918</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>420841</v>
+        <v>415799</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>341051</v>
+        <v>342076</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>754658</v>
+        <v>755354</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>873760</v>
+        <v>871937</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>621211</v>
+        <v>620521</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>503290</v>
+        <v>500467</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>218469</v>
+        <v>219381</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>372053</v>
+        <v>371716</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>323594</v>
+        <v>320402</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>367051</v>
+        <v>362474</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>327479</v>
+        <v>329300</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>489283</v>
+        <v>491584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>413843</v>
+        <v>415903</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>497911</v>
+        <v>500363</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>565600</v>
+        <v>562398</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>888413</v>
+        <v>887174</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>755816</v>
+        <v>753837</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>881396</v>
+        <v>888551</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>275727</v>
+        <v>278641</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>445975</v>
+        <v>449466</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>394783</v>
+        <v>391089</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>447370</v>
+        <v>443786</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>399612</v>
+        <v>395366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>567429</v>
+        <v>572880</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>490282</v>
+        <v>490746</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>569902</v>
+        <v>573885</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>658622</v>
+        <v>655297</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>994177</v>
+        <v>997390</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>855718</v>
+        <v>860248</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>994732</v>
+        <v>994626</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>70288</v>
+        <v>69153</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45527</v>
+        <v>47293</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>67326</v>
+        <v>68358</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>108249</v>
+        <v>111628</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>86803</v>
+        <v>87393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>75675</v>
+        <v>77778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>92637</v>
+        <v>91470</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>157224</v>
+        <v>153816</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>164044</v>
+        <v>163694</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>134258</v>
+        <v>130984</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>169454</v>
+        <v>169922</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>280089</v>
+        <v>277852</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>102334</v>
+        <v>104296</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>78994</v>
+        <v>78395</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>104888</v>
+        <v>106683</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>152737</v>
+        <v>153618</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>123180</v>
+        <v>123167</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>112962</v>
+        <v>114276</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>130059</v>
+        <v>128721</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>197910</v>
+        <v>196501</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>217083</v>
+        <v>216617</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>186589</v>
+        <v>181594</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>219727</v>
+        <v>223032</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>341589</v>
+        <v>335757</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>567755</v>
+        <v>565139</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>710192</v>
+        <v>705983</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>593359</v>
+        <v>592378</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>638910</v>
+        <v>638894</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>848940</v>
+        <v>844505</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1102350</v>
+        <v>1104636</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>892334</v>
+        <v>895468</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>979156</v>
+        <v>985285</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1447334</v>
+        <v>1439658</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1844585</v>
+        <v>1846340</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1512278</v>
+        <v>1518938</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1649339</v>
+        <v>1650525</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>656883</v>
+        <v>658637</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>814143</v>
+        <v>808167</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>686842</v>
+        <v>686519</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>736423</v>
+        <v>736590</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>952736</v>
+        <v>945437</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1214827</v>
+        <v>1221732</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>997306</v>
+        <v>1000881</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1080416</v>
+        <v>1083354</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1579485</v>
+        <v>1577958</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1994237</v>
+        <v>2006617</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1653643</v>
+        <v>1665145</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1785665</v>
+        <v>1788692</v>
       </c>
     </row>
     <row r="20">
